--- a/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DC6D22-97D8-4F0C-A170-B4FDA819D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F5EA8A-68FE-49C2-9BA5-849296952660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{31060044-4470-4203-9441-BE408504047D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0CBF0E77-5F6B-4523-810D-0859D92C61DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,265 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>1,64%</t>
@@ -98,39 +353,6 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>28,72%</t>
   </si>
   <si>
@@ -158,36 +380,6 @@
     <t>33,99%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>62,41%</t>
   </si>
   <si>
@@ -215,123 +407,171 @@
     <t>68,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
     <t>1,48%</t>
   </si>
   <si>
@@ -356,30 +596,6 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
     <t>39,2%</t>
   </si>
   <si>
@@ -407,27 +623,6 @@
     <t>38,87%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
     <t>55,14%</t>
   </si>
   <si>
@@ -455,199 +650,52 @@
     <t>64,11%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>1,97%</t>
@@ -659,9 +707,6 @@
     <t>4,47%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
     <t>6,62%</t>
   </si>
   <si>
@@ -671,24 +716,6 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
     <t>31,91%</t>
   </si>
   <si>
@@ -714,33 +741,6 @@
   </si>
   <si>
     <t>35,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
   </si>
   <si>
     <t>61,77%</t>
@@ -1159,7 +1159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C70653-C52A-4165-9C6B-E79A29D80B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3102EB1-74D5-46BA-A3D3-0FFA74AFEB52}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1277,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2419</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1292,238 +1292,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>4579</v>
+        <v>573</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>573</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6998</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4823</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1809</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6633</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>42241</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>27632</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>69873</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>5819</v>
+        <v>2071</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>2363</v>
+        <v>4479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>8182</v>
+        <v>6550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>91802</v>
+        <v>4484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>65855</v>
+        <v>4716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>157657</v>
+        <v>9199</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,108 +1532,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>147104</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>249343</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3547</v>
+        <v>902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>819</v>
+        <v>732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>4365</v>
+        <v>1634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1642,13 +1642,13 @@
         <v>412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1672,121 +1672,121 @@
         <v>412</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>16841</v>
+        <v>3547</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>12854</v>
+        <v>819</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>29695</v>
+        <v>4365</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16841</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12854</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="7">
         <v>40</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>902</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>732</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
       <c r="N13" s="7">
-        <v>1634</v>
+        <v>29695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>53</v>
@@ -1795,13 +1795,13 @@
         <v>47577</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -1810,13 +1810,13 @@
         <v>37193</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -1825,13 +1825,13 @@
         <v>84770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1846,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1861,13 +1861,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1876,270 +1876,270 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>1374</v>
+        <v>5819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2363</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="7">
         <v>9</v>
       </c>
-      <c r="I16" s="7">
-        <v>7678</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
       <c r="N16" s="7">
-        <v>9051</v>
+        <v>8182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>725</v>
+        <v>4823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>4355</v>
+        <v>1809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>5080</v>
+        <v>6633</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>36447</v>
+        <v>2419</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>25936</v>
+        <v>4579</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>62384</v>
+        <v>6998</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>3168</v>
+        <v>42241</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>1373</v>
+        <v>27632</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="N19" s="7">
-        <v>4542</v>
+        <v>69873</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>51271</v>
+        <v>91802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7">
-        <v>59847</v>
+        <v>65855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="N20" s="7">
-        <v>111119</v>
+        <v>157657</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,306 +2148,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D21" s="7">
-        <v>92986</v>
+        <v>147104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="N21" s="7">
-        <v>192176</v>
+        <v>249343</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>2053</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>2071</v>
+        <v>906</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3072</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3978</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4479</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M24" s="7">
-        <v>10</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6550</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>35742</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I25" s="7">
-        <v>573</v>
+        <v>42133</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="7">
+        <v>78</v>
+      </c>
+      <c r="N25" s="7">
+        <v>77875</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>573</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7">
-        <v>4484</v>
+        <v>63022</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>72</v>
+      </c>
+      <c r="I26" s="7">
+        <v>52211</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4716</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>140</v>
+      </c>
+      <c r="N26" s="7">
+        <v>115233</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M26" s="7">
-        <v>14</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9199</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,246 +2456,246 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>98476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>200463</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>906</v>
+        <v>3168</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1373</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3072</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
       </c>
       <c r="N28" s="7">
-        <v>3978</v>
+        <v>4542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>906</v>
+        <v>725</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4355</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>418</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>6</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5080</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M29" s="7">
-        <v>2</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1324</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>35742</v>
+        <v>1374</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7678</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="7">
-        <v>41</v>
-      </c>
-      <c r="I30" s="7">
-        <v>42133</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>11</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9051</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M30" s="7">
-        <v>78</v>
-      </c>
-      <c r="N30" s="7">
-        <v>77875</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7">
-        <v>1411</v>
+        <v>36447</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>34</v>
+      </c>
+      <c r="I31" s="7">
+        <v>25936</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>642</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>191</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="N31" s="7">
-        <v>2053</v>
+        <v>62384</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>192</v>
@@ -2710,13 +2710,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" s="7">
-        <v>63022</v>
+        <v>51271</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>195</v>
@@ -2728,10 +2728,10 @@
         <v>197</v>
       </c>
       <c r="H32" s="7">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I32" s="7">
-        <v>52211</v>
+        <v>59847</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>198</v>
@@ -2743,10 +2743,10 @@
         <v>200</v>
       </c>
       <c r="M32" s="7">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N32" s="7">
-        <v>115233</v>
+        <v>111119</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>201</v>
@@ -2764,49 +2764,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7">
-        <v>98476</v>
+        <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N33" s="7">
-        <v>200463</v>
+        <v>192176</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,55 +2817,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
-        <v>8245</v>
+        <v>11300</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7">
+        <v>8</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5683</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" s="7">
         <v>22</v>
       </c>
-      <c r="I34" s="7">
-        <v>16148</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M34" s="7">
-        <v>30</v>
-      </c>
       <c r="N34" s="7">
-        <v>24393</v>
+        <v>16983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>8</v>
@@ -2874,13 +2874,13 @@
         <v>6866</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -2889,13 +2889,13 @@
         <v>6583</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -2904,76 +2904,76 @@
         <v>13449</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="7">
+        <v>8</v>
+      </c>
+      <c r="D36" s="7">
+        <v>8245</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="7">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7">
+        <v>16148</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" s="7">
         <v>30</v>
       </c>
-      <c r="C36" s="7">
-        <v>150</v>
-      </c>
-      <c r="D36" s="7">
-        <v>133342</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="7">
-        <v>139</v>
-      </c>
-      <c r="I36" s="7">
-        <v>113035</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M36" s="7">
-        <v>289</v>
-      </c>
       <c r="N36" s="7">
-        <v>246377</v>
+        <v>24393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D37" s="7">
-        <v>11300</v>
+        <v>133342</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>226</v>
@@ -2985,10 +2985,10 @@
         <v>228</v>
       </c>
       <c r="H37" s="7">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="I37" s="7">
-        <v>5683</v>
+        <v>113035</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>229</v>
@@ -3000,10 +3000,10 @@
         <v>231</v>
       </c>
       <c r="M37" s="7">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="N37" s="7">
-        <v>16983</v>
+        <v>246377</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>232</v>
@@ -3018,7 +3018,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>308</v>
@@ -3078,13 +3078,13 @@
         <v>417910</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
@@ -3093,13 +3093,13 @@
         <v>361271</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>964</v>
@@ -3108,13 +3108,13 @@
         <v>779181</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F5EA8A-68FE-49C2-9BA5-849296952660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABE2909-6278-47B0-B629-DE0DC00567EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0CBF0E77-5F6B-4523-810D-0859D92C61DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D07AAE9B-BA21-4EC6-8EBC-5930C956D0E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="244">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -68,18 +68,90 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
     <t>5,86%</t>
   </si>
   <si>
@@ -92,580 +164,598 @@
     <t>18,69%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>7,57%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>6,97%</t>
+    <t>8,35%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>4,97%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
     <t>3,96%</t>
   </si>
   <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>4,75%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -674,100 +764,10 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -874,39 +874,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -958,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1069,13 +1069,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1084,6 +1077,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1148,19 +1148,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3102EB1-74D5-46BA-A3D3-0FFA74AFEB52}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE1C816-B202-448E-A9FD-A028F011C99C}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1277,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1292,91 +1312,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>573</v>
+        <v>4716</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>573</v>
+        <v>9199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1385,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1400,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1415,112 +1435,112 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2071</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4479</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>6550</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4484</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>4716</v>
+        <v>573</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>9199</v>
+        <v>573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>41</v>
@@ -1585,106 +1605,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>902</v>
+        <v>47577</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>732</v>
+        <v>37193</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="N10" s="7">
-        <v>1634</v>
+        <v>84770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>412</v>
+        <v>16841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>12854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N11" s="7">
-        <v>412</v>
+        <v>29695</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -1693,13 +1713,13 @@
         <v>3547</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1708,13 +1728,13 @@
         <v>819</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -1723,115 +1743,115 @@
         <v>4365</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>16841</v>
+        <v>412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>12854</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>29695</v>
+        <v>412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>47577</v>
+        <v>902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>37193</v>
+        <v>732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>84770</v>
+        <v>1634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,112 +1907,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7">
-        <v>5819</v>
+        <v>91802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>2363</v>
+        <v>65855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="N16" s="7">
-        <v>8182</v>
+        <v>157657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>4823</v>
+        <v>42241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>1809</v>
+        <v>27632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="N17" s="7">
-        <v>6633</v>
+        <v>69873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -2001,13 +2021,13 @@
         <v>2419</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2016,13 +2036,13 @@
         <v>4579</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2031,109 +2051,109 @@
         <v>6998</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>42241</v>
+        <v>4823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>27632</v>
+        <v>1809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>69873</v>
+        <v>6633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5819</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="7">
-        <v>91802</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>65855</v>
+        <v>2363</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>157657</v>
+        <v>8182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>121</v>
@@ -2201,106 +2221,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>1411</v>
+        <v>63022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I22" s="7">
-        <v>642</v>
+        <v>52211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="N22" s="7">
-        <v>2053</v>
+        <v>115233</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7">
-        <v>906</v>
+        <v>35742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I23" s="7">
-        <v>418</v>
+        <v>42133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="N23" s="7">
-        <v>1324</v>
+        <v>77875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -2309,13 +2329,13 @@
         <v>906</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2324,13 +2344,13 @@
         <v>3072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2339,115 +2359,115 @@
         <v>3978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>35742</v>
+        <v>906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>42133</v>
+        <v>418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>77875</v>
+        <v>1324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>63022</v>
+        <v>1411</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>52211</v>
+        <v>642</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>115233</v>
+        <v>2053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,112 +2523,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7">
-        <v>3168</v>
+        <v>51271</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="I28" s="7">
-        <v>1373</v>
+        <v>59847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="N28" s="7">
-        <v>4542</v>
+        <v>111119</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7">
-        <v>725</v>
+        <v>36447</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I29" s="7">
-        <v>4355</v>
+        <v>25936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="N29" s="7">
-        <v>5080</v>
+        <v>62384</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2617,13 +2637,13 @@
         <v>1374</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2632,13 +2652,13 @@
         <v>7678</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2647,106 +2667,106 @@
         <v>9051</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>36447</v>
+        <v>725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H31" s="7">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>25936</v>
+        <v>4355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M31" s="7">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="N31" s="7">
-        <v>62384</v>
+        <v>5080</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>51271</v>
+        <v>3168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>59847</v>
+        <v>1373</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>200</v>
       </c>
       <c r="M32" s="7">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>111119</v>
+        <v>4542</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>201</v>
@@ -2817,10 +2837,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="D34" s="7">
-        <v>11300</v>
+        <v>258157</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>204</v>
@@ -2832,10 +2852,10 @@
         <v>206</v>
       </c>
       <c r="H34" s="7">
-        <v>8</v>
+        <v>299</v>
       </c>
       <c r="I34" s="7">
-        <v>5683</v>
+        <v>219823</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>207</v>
@@ -2847,10 +2867,10 @@
         <v>209</v>
       </c>
       <c r="M34" s="7">
-        <v>22</v>
+        <v>607</v>
       </c>
       <c r="N34" s="7">
-        <v>16983</v>
+        <v>477978</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>210</v>
@@ -2865,58 +2885,58 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D35" s="7">
-        <v>6866</v>
+        <v>133342</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="I35" s="7">
-        <v>6583</v>
+        <v>113035</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M35" s="7">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="N35" s="7">
-        <v>13449</v>
+        <v>246376</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>8</v>
@@ -2925,13 +2945,13 @@
         <v>8245</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -2940,13 +2960,13 @@
         <v>16148</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -2955,58 +2975,58 @@
         <v>24393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>133342</v>
+        <v>6866</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="H37" s="7">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>113035</v>
+        <v>6583</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="7">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="N37" s="7">
-        <v>246377</v>
+        <v>13449</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>233</v>
@@ -3018,13 +3038,13 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="D38" s="7">
-        <v>258157</v>
+        <v>11300</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>235</v>
@@ -3036,34 +3056,34 @@
         <v>237</v>
       </c>
       <c r="H38" s="7">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="I38" s="7">
-        <v>219823</v>
+        <v>5683</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>238</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>22</v>
+      </c>
+      <c r="N38" s="7">
+        <v>16983</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="M38" s="7">
-        <v>607</v>
-      </c>
-      <c r="N38" s="7">
-        <v>477979</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3125,7 @@
         <v>964</v>
       </c>
       <c r="N39" s="7">
-        <v>779181</v>
+        <v>779180</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>42</v>
@@ -3115,6 +3135,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABE2909-6278-47B0-B629-DE0DC00567EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1191BE-8B4E-4294-9C70-3ECB45E653B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D07AAE9B-BA21-4EC6-8EBC-5930C956D0E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E530B3B2-B072-4E53-B583-6B5F30DDEAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -74,697 +74,688 @@
     <t>68,41%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1179,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE1C816-B202-448E-A9FD-A028F011C99C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE4F38-56E8-4FE5-8B1C-9B48E4EE4691}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1973,10 +1964,10 @@
         <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -1985,13 +1976,13 @@
         <v>27632</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -2000,13 +1991,13 @@
         <v>69873</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2012,13 @@
         <v>2419</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2036,13 +2027,13 @@
         <v>4579</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2051,13 +2042,13 @@
         <v>6998</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2063,13 @@
         <v>4823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2087,13 +2078,13 @@
         <v>1809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2102,13 +2093,13 @@
         <v>6633</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2114,13 @@
         <v>5819</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2138,13 +2129,13 @@
         <v>2363</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2153,13 +2144,13 @@
         <v>8182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2206,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2227,13 +2218,13 @@
         <v>63022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -2242,13 +2233,13 @@
         <v>52211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -2257,13 +2248,13 @@
         <v>115233</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2269,13 @@
         <v>35742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -2293,13 +2284,13 @@
         <v>42133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -2308,13 +2299,13 @@
         <v>77875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2320,13 @@
         <v>906</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2344,13 +2335,13 @@
         <v>3072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2359,13 +2350,13 @@
         <v>3978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2371,13 @@
         <v>906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2395,13 +2386,13 @@
         <v>418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2410,13 +2401,13 @@
         <v>1324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2422,13 @@
         <v>1411</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2446,13 +2437,13 @@
         <v>642</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2461,13 +2452,13 @@
         <v>2053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2514,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2535,13 +2526,13 @@
         <v>51271</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>81</v>
@@ -2550,13 +2541,13 @@
         <v>59847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -2565,13 +2556,13 @@
         <v>111119</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2577,13 @@
         <v>36447</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -2601,13 +2592,13 @@
         <v>25936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -2616,13 +2607,13 @@
         <v>62384</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2628,13 @@
         <v>1374</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2652,13 +2643,13 @@
         <v>7678</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2667,13 +2658,13 @@
         <v>9051</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2679,13 @@
         <v>725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2703,13 +2694,13 @@
         <v>4355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -2718,13 +2709,13 @@
         <v>5080</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2730,13 @@
         <v>3168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2754,13 +2745,13 @@
         <v>1373</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -2769,13 +2760,13 @@
         <v>4542</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2834,13 @@
         <v>258157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>299</v>
@@ -2858,28 +2849,28 @@
         <v>219823</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>607</v>
       </c>
       <c r="N34" s="7">
-        <v>477978</v>
+        <v>477979</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2885,13 @@
         <v>133342</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -2909,28 +2900,28 @@
         <v>113035</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M35" s="7">
         <v>289</v>
       </c>
       <c r="N35" s="7">
-        <v>246376</v>
+        <v>246377</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2936,13 @@
         <v>8245</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -2960,13 +2951,13 @@
         <v>16148</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -2975,13 +2966,13 @@
         <v>24393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2987,13 @@
         <v>6866</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -3011,13 +3002,13 @@
         <v>6583</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -3026,13 +3017,13 @@
         <v>13449</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3038,13 @@
         <v>11300</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -3062,13 +3053,13 @@
         <v>5683</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>22</v>
@@ -3077,13 +3068,13 @@
         <v>16983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3116,7 @@
         <v>964</v>
       </c>
       <c r="N39" s="7">
-        <v>779180</v>
+        <v>779181</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>42</v>
@@ -3139,7 +3130,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1191BE-8B4E-4294-9C70-3ECB45E653B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10FB3FFF-9E1E-4ECE-8A12-5EAFF2321FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E530B3B2-B072-4E53-B583-6B5F30DDEAEC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B1A235F2-FB4C-4029-BBE5-94C452C06447}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
-  <si>
-    <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="215">
+  <si>
+    <t>Menores según frecuencia de tener suficiente tiempo para él/ella en 2023 (Tasa respuesta: 50,16%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,70 +65,100 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -137,625 +167,517 @@
     <t>0%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>3,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1170,8 +1092,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE4F38-56E8-4FE5-8B1C-9B48E4EE4691}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF88AF5D-DE20-46F7-8379-4B911FBB3613}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1288,10 +1210,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>4484</v>
+        <v>32150</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1303,10 +1225,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>4716</v>
+        <v>28717</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1318,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>9199</v>
+        <v>60867</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1339,10 +1261,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>2071</v>
+        <v>18947</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1354,10 +1276,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>4479</v>
+        <v>23451</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1369,10 +1291,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="N5" s="7">
-        <v>6550</v>
+        <v>42397</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1390,10 +1312,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>7020</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1405,40 +1327,40 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>23505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>30525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1447,49 +1369,49 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2643</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2643</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1498,43 +1420,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>573</v>
+        <v>6758</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>573</v>
+        <v>6758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,102 +1465,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7">
-        <v>6555</v>
+        <v>58116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>9768</v>
+        <v>85074</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="N9" s="7">
-        <v>16322</v>
+        <v>143189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>47577</v>
+        <v>61882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7">
-        <v>37193</v>
+        <v>79135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="N10" s="7">
-        <v>84770</v>
+        <v>141017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,49 +1569,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>16841</v>
+        <v>28212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>12854</v>
+        <v>47006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>29695</v>
+        <v>75218</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,151 +1620,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>3547</v>
+        <v>6438</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>819</v>
+        <v>17060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>4365</v>
+        <v>23498</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>412</v>
+        <v>3912</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>732</v>
+        <v>1661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1634</v>
+        <v>1661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,102 +1773,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>69278</v>
+        <v>97266</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="I15" s="7">
-        <v>51598</v>
+        <v>148040</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="N15" s="7">
-        <v>120876</v>
+        <v>245306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>91802</v>
+        <v>58188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>65855</v>
+        <v>57558</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="N16" s="7">
-        <v>157657</v>
+        <v>115746</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,49 +1877,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>42241</v>
+        <v>26188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>27632</v>
+        <v>37684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N17" s="7">
-        <v>69873</v>
+        <v>63872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,151 +1928,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>2419</v>
+        <v>32136</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>4579</v>
+        <v>12474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>6998</v>
+        <v>44610</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>4823</v>
+        <v>2312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1809</v>
+        <v>821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>6633</v>
+        <v>3133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>5819</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>2363</v>
+        <v>427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>8182</v>
+        <v>427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,102 +2081,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7">
-        <v>147104</v>
+        <v>118824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>102239</v>
+        <v>108964</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="N21" s="7">
-        <v>249343</v>
+        <v>227788</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>63022</v>
+        <v>56462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>52211</v>
+        <v>49931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N22" s="7">
-        <v>115233</v>
+        <v>106393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,49 +2185,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7">
-        <v>35742</v>
+        <v>33889</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" s="7">
-        <v>42133</v>
+        <v>33663</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N23" s="7">
-        <v>77875</v>
+        <v>67552</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,151 +2236,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>906</v>
+        <v>2958</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>3072</v>
+        <v>8430</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>3978</v>
+        <v>11388</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>906</v>
+        <v>2454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>418</v>
+        <v>2758</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>1324</v>
+        <v>5212</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>642</v>
+        <v>1689</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>2053</v>
+        <v>1689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,102 +2389,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>101987</v>
+        <v>95763</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I27" s="7">
-        <v>98476</v>
+        <v>96471</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N27" s="7">
-        <v>200463</v>
+        <v>192234</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="D28" s="7">
-        <v>51271</v>
+        <v>208682</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="I28" s="7">
-        <v>59847</v>
+        <v>215340</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
-        <v>146</v>
+        <v>527</v>
       </c>
       <c r="N28" s="7">
-        <v>111119</v>
+        <v>424022</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2493,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="D29" s="7">
-        <v>36447</v>
+        <v>107236</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="I29" s="7">
-        <v>25936</v>
+        <v>141803</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="N29" s="7">
-        <v>62384</v>
+        <v>249039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,151 +2544,151 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D30" s="7">
-        <v>1374</v>
+        <v>48551</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="H30" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I30" s="7">
-        <v>7678</v>
+        <v>61470</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="N30" s="7">
-        <v>9051</v>
+        <v>110021</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>725</v>
+        <v>5500</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I31" s="7">
-        <v>4355</v>
+        <v>9400</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>5080</v>
+        <v>14900</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>3168</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>1373</v>
+        <v>10535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>4542</v>
+        <v>10535</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,370 +2697,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>117</v>
+        <v>476</v>
       </c>
       <c r="D33" s="7">
-        <v>92986</v>
+        <v>369969</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
-        <v>131</v>
+        <v>487</v>
       </c>
       <c r="I33" s="7">
-        <v>99190</v>
+        <v>438548</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
-        <v>248</v>
+        <v>963</v>
       </c>
       <c r="N33" s="7">
-        <v>192176</v>
+        <v>808517</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>308</v>
-      </c>
-      <c r="D34" s="7">
-        <v>258157</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H34" s="7">
-        <v>299</v>
-      </c>
-      <c r="I34" s="7">
-        <v>219823</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M34" s="7">
-        <v>607</v>
-      </c>
-      <c r="N34" s="7">
-        <v>477979</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>150</v>
-      </c>
-      <c r="D35" s="7">
-        <v>133342</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H35" s="7">
-        <v>139</v>
-      </c>
-      <c r="I35" s="7">
-        <v>113035</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="A34" t="s">
         <v>214</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M35" s="7">
-        <v>289</v>
-      </c>
-      <c r="N35" s="7">
-        <v>246377</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>8</v>
-      </c>
-      <c r="D36" s="7">
-        <v>8245</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="7">
-        <v>22</v>
-      </c>
-      <c r="I36" s="7">
-        <v>16148</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M36" s="7">
-        <v>30</v>
-      </c>
-      <c r="N36" s="7">
-        <v>24393</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7">
-        <v>6866</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H37" s="7">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7">
-        <v>6583</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M37" s="7">
-        <v>16</v>
-      </c>
-      <c r="N37" s="7">
-        <v>13449</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7">
-        <v>14</v>
-      </c>
-      <c r="D38" s="7">
-        <v>11300</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H38" s="7">
-        <v>8</v>
-      </c>
-      <c r="I38" s="7">
-        <v>5683</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M38" s="7">
-        <v>22</v>
-      </c>
-      <c r="N38" s="7">
-        <v>16983</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>488</v>
-      </c>
-      <c r="D39" s="7">
-        <v>417910</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="7">
-        <v>476</v>
-      </c>
-      <c r="I39" s="7">
-        <v>361271</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="7">
-        <v>964</v>
-      </c>
-      <c r="N39" s="7">
-        <v>779181</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>240</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
